--- a/data_process/xlsx/jongno_B3_processed.xlsx
+++ b/data_process/xlsx/jongno_B3_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,8 +561,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>126.9912405</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.5710346</v>
       </c>
     </row>
     <row r="3">
@@ -611,8 +627,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>127.0076665</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5687346</v>
       </c>
     </row>
     <row r="4">
@@ -671,8 +693,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>126.9998451</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5834877</v>
       </c>
     </row>
     <row r="5">
@@ -731,8 +759,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>126.981707</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37.5641952</v>
       </c>
     </row>
     <row r="6">
@@ -791,8 +825,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>126.9721401</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.5696647</v>
       </c>
     </row>
     <row r="7">
@@ -851,8 +891,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>127.0073812</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37.5668017</v>
       </c>
     </row>
     <row r="8">
@@ -911,8 +957,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>126.9700447</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.5681882</v>
       </c>
     </row>
     <row r="9">
@@ -971,8 +1023,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>126.9828804</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.5634327</v>
       </c>
     </row>
     <row r="10">
@@ -1031,8 +1089,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>126.968627</v>
+      </c>
+      <c r="N10" t="n">
+        <v>37.5670972</v>
       </c>
     </row>
     <row r="11">
@@ -1091,8 +1155,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>126.9879193</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37.5727653</v>
       </c>
     </row>
     <row r="12">
@@ -1151,8 +1221,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>127.0021216</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.5830938</v>
       </c>
     </row>
     <row r="13">
@@ -1211,8 +1287,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>126.9985011</v>
+      </c>
+      <c r="N13" t="n">
+        <v>37.5693625</v>
       </c>
     </row>
     <row r="14">
@@ -1271,8 +1353,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>126.9932319</v>
+      </c>
+      <c r="N14" t="n">
+        <v>37.5647074</v>
       </c>
     </row>
     <row r="15">
@@ -1331,8 +1419,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>126.9690345</v>
+      </c>
+      <c r="N15" t="n">
+        <v>37.5720718</v>
       </c>
     </row>
     <row r="16">
@@ -1391,8 +1485,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>126.9859151</v>
+      </c>
+      <c r="N16" t="n">
+        <v>37.5759437</v>
       </c>
     </row>
     <row r="17">
@@ -1451,8 +1551,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>127.0037349</v>
+      </c>
+      <c r="N17" t="n">
+        <v>37.5836998</v>
       </c>
     </row>
     <row r="18">
@@ -1511,8 +1617,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>126.9853496</v>
+      </c>
+      <c r="N18" t="n">
+        <v>37.5612886</v>
       </c>
     </row>
     <row r="19">
@@ -1571,8 +1683,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>126.9953587</v>
+      </c>
+      <c r="N19" t="n">
+        <v>37.5610797</v>
       </c>
     </row>
     <row r="20">
@@ -1631,8 +1749,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>126.9837745</v>
+      </c>
+      <c r="N20" t="n">
+        <v>37.5634545</v>
       </c>
     </row>
     <row r="21">
@@ -1691,8 +1815,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>127.0118106</v>
+      </c>
+      <c r="N21" t="n">
+        <v>37.5702675</v>
       </c>
     </row>
     <row r="22">
@@ -1751,8 +1881,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>126.9942075</v>
+      </c>
+      <c r="N22" t="n">
+        <v>37.5612891</v>
       </c>
     </row>
     <row r="23">
@@ -1811,8 +1947,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>126.9774979</v>
+      </c>
+      <c r="N23" t="n">
+        <v>37.5604879</v>
       </c>
     </row>
     <row r="24">
@@ -1871,8 +2013,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>126.9914076</v>
+      </c>
+      <c r="N24" t="n">
+        <v>37.5659658</v>
       </c>
     </row>
     <row r="25">
@@ -1931,8 +2079,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:13</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>126.9690345</v>
+      </c>
+      <c r="N25" t="n">
+        <v>37.5720718</v>
       </c>
     </row>
   </sheetData>
